--- a/data/trans_bre/P25_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-28,42%</t>
+          <t>73,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>-9,31%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-18,79%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-8,22%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 5,62</t>
+          <t>-1,46; 8,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,65</t>
+          <t>-6,03; 4,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 4,07</t>
+          <t>-7,05; 3,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 224,49</t>
+          <t>-7,37; 6,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,0; 41,79</t>
+          <t>-27,91; 363,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 101,06</t>
+          <t>-58,16; 104,39</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-62,13; 87,39</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-60,65; 137,49</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,4%</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>-26,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-34,27%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>76,67%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 3,88</t>
+          <t>-12,28; 5,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 4,35</t>
+          <t>-5,27; 6,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 6,0</t>
+          <t>-11,9; 3,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 57,4</t>
+          <t>-3,5; 21,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,73; 110,36</t>
+          <t>-75,08; 113,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 110,04</t>
+          <t>-77,36; 346,29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-76,4; 104,81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-50,03; 548,11</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>102,19%</t>
+          <t>101,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>155,95%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50,2%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>112,83%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 10,21</t>
+          <t>-8,03; 23,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 12,25</t>
+          <t>-10,73; 20,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 12,74</t>
+          <t>-18,58; 20,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-77,28; 430,92</t>
+          <t>-6,26; 20,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,7 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,14; 781,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-88,33; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-83,27; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-17,77%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,32</t>
+          <t>-3,69; 5,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,29</t>
+          <t>-3,16; 4,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,43</t>
+          <t>-5,98; 2,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 64,48</t>
+          <t>-2,31; 9,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 48,75</t>
+          <t>-38,74; 112,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,28; 64,5</t>
+          <t>-41,15; 101,46</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-52,6; 48,76</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-29,16; 188,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>73,45%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-9,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-18,79%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-8,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.781395329812208</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.439023192579123</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.125203740761987</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.00886985545309</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.8188539764623641</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1801435635788162</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2478066705931067</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1171943974854039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 8,76</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 4,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 3,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 6,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-27,91; 363,8</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-58,16; 104,39</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-62,13; 87,39</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-60,65; 137,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.00842629742645</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.337637808968599</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.993333474073193</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.197913404266643</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2193467017548646</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6335052530265595</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6463839163192799</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6106702616228993</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.546163223667536</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.054340923982065</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.30435877995905</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.933521770709945</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.990326547210531</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.9012657652459395</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.6564608866862289</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.21270358925788</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,56</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,31</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,38</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-26,46%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-34,27%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>76,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,28; 5,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; 6,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,9; 3,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 21,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-75,08; 113,8</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-77,36; 346,29</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-76,4; 104,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-50,03; 548,11</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.456105444738062</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3543312612690142</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.505552799636135</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.882579154103931</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2588639683379715</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.06739495938303178</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.419634176935231</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5460385004542934</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,26</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,22</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>101,79%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>155,95%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>50,2%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>112,83%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.53924038082889</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.667984126062715</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-15.49466130687652</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.408223532646479</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.737357518071793</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8440205258463023</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8033862973609496</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5489988133926402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,03; 23,41</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,73; 20,28</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 20,21</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 20,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-88,33; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-83,27; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.141769840602724</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.372415817869016</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.009120104344972</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.28953596796242</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.175619696253692</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.745378482556516</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8858898184627313</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.323398877437112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>19,21%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-17,77%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>31,53%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.89981093473642</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.407507067756658</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.378886200805179</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.037613562637119</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.18764741475874</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.959420107437645</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5310651935295216</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.174210389232149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 5,46</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 4,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,98; 2,73</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 9,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-38,74; 112,93</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-41,15; 101,46</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-52,6; 48,76</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-29,16; 188,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.264787151414376</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.501755795573158</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.95123545743269</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.660204761394129</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8622721550247187</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8402773498999621</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>24.61045778072815</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.25472621737961</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.30399475791524</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.96577685346807</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.593090961618228</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.0261400549820906</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.355603481933888</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.694550544354863</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2320712430598895</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.004094470152754571</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2439790229390702</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.222754005353046</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.595050621866021</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.042646236270262</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.510890678341172</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.099182698045777</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3770368360038402</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4546962719696375</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5711867152138773</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3206035342026983</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.863157050358982</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.695794759217187</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.97097180117792</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.782473882854251</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.257427576908342</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.9178533211375457</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3159159083103331</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.559363334589257</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1015,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
